--- a/2023春/周四10点班考勤表.xlsx
+++ b/2023春/周四10点班考勤表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juncker/助教/2023春/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\读博\助教\2023春\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C62CC043-AB86-DD4D-9D41-868C447A83DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="115">
   <si>
     <t>2022-2023春季学期《经济学原理Ⅱ》考勤表</t>
   </si>
@@ -359,12 +358,20 @@
   </si>
   <si>
     <t>系(教研室主任签名):</t>
+  </si>
+  <si>
+    <t>期中考试签到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期中考试成绩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -498,6 +505,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -510,26 +529,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,97 +851,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="173" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="24" width="4.5" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="4.5" customWidth="1"/>
+    <col min="25" max="25" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:24" ht="32.85" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -990,18 +1000,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+    <row r="4" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>8</v>
@@ -1052,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25" customHeight="1">
+    <row r="5" spans="1:24" ht="24.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1065,14 +1075,16 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>74</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1090,7 +1102,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="16.25" customHeight="1">
+    <row r="6" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1103,14 +1115,16 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="14"/>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>90</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1128,7 +1142,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="16.25" customHeight="1">
+    <row r="7" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1141,14 +1155,16 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="E7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14"/>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>68</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1166,7 +1182,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="16.25" customHeight="1">
+    <row r="8" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1179,14 +1195,16 @@
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="14"/>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>70</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1204,7 +1222,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="16.25" customHeight="1">
+    <row r="9" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1217,14 +1235,16 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="E9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>84</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1242,7 +1262,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="16.25" customHeight="1">
+    <row r="10" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1255,14 +1275,16 @@
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14"/>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>72</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1280,7 +1302,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="16.25" customHeight="1">
+    <row r="11" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1293,14 +1315,16 @@
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="E11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14"/>
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>70</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1318,7 +1342,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="16.25" customHeight="1">
+    <row r="12" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1331,14 +1355,16 @@
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="E12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="14"/>
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>89</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1356,7 +1382,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="16.25" customHeight="1">
+    <row r="13" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1369,14 +1395,16 @@
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>60</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1394,7 +1422,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="16.25" customHeight="1">
+    <row r="14" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1407,14 +1435,16 @@
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="14"/>
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>40</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1432,7 +1462,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="16.25" customHeight="1">
+    <row r="15" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1445,14 +1475,16 @@
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="E15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>72</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1470,7 +1502,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="16.25" customHeight="1">
+    <row r="16" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1483,14 +1515,16 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="14"/>
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>65</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1508,7 +1542,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="16.25" customHeight="1">
+    <row r="17" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1521,14 +1555,16 @@
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="14"/>
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>94</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1546,7 +1582,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="16.25" customHeight="1">
+    <row r="18" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1559,14 +1595,16 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="10"/>
+      <c r="E18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="14"/>
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>77</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1584,7 +1622,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="16.25" customHeight="1">
+    <row r="19" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1597,14 +1635,16 @@
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="E19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>88</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1622,7 +1662,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="16.25" customHeight="1">
+    <row r="20" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1635,14 +1675,16 @@
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="14"/>
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>83</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1660,7 +1702,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="16.25" customHeight="1">
+    <row r="21" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1673,14 +1715,16 @@
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="E21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="14"/>
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>81</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1698,7 +1742,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="16.25" customHeight="1">
+    <row r="22" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1711,14 +1755,16 @@
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>84</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1736,7 +1782,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="16.25" customHeight="1">
+    <row r="23" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1749,14 +1795,16 @@
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>73</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1774,7 +1822,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="16.25" customHeight="1">
+    <row r="24" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1787,14 +1835,16 @@
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="E24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="14"/>
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>77</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1812,7 +1862,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="16.25" customHeight="1">
+    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1825,14 +1875,16 @@
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="14"/>
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>87</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1850,7 +1902,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="16.25" customHeight="1">
+    <row r="26" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1863,14 +1915,16 @@
       <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="E26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="14"/>
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>76</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1888,7 +1942,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="16.25" customHeight="1">
+    <row r="27" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1901,14 +1955,16 @@
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="14"/>
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>62</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1926,7 +1982,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="16.25" customHeight="1">
+    <row r="28" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1939,14 +1995,16 @@
       <c r="D28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="E28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="14"/>
       <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>86</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1964,7 +2022,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="16.25" customHeight="1">
+    <row r="29" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -1977,14 +2035,16 @@
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="10"/>
+      <c r="E29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="14"/>
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>76</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2002,22 +2062,22 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="16.25" customHeight="1">
-      <c r="A30" s="14">
+    <row r="30" spans="1:24" ht="16.350000000000001" customHeight="1">
+      <c r="A30" s="8">
         <v>26</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2036,7 +2096,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="16.25" customHeight="1">
+    <row r="31" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2049,14 +2109,16 @@
       <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="E31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="14"/>
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>81</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2074,7 +2136,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="16.25" customHeight="1">
+    <row r="32" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2087,14 +2149,16 @@
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="10"/>
+      <c r="E32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="14"/>
       <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>78</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2112,7 +2176,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="16.25" customHeight="1">
+    <row r="33" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2125,14 +2189,16 @@
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="10"/>
+      <c r="E33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="14"/>
       <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>69</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2150,7 +2216,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="16.25" customHeight="1">
+    <row r="34" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2163,14 +2229,16 @@
       <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="E34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="14"/>
       <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>86</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2188,7 +2256,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="16.25" customHeight="1">
+    <row r="35" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2201,14 +2269,16 @@
       <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="10"/>
+      <c r="E35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="14"/>
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>73</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2226,7 +2296,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="16.25" customHeight="1">
+    <row r="36" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2239,14 +2309,16 @@
       <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="10"/>
+      <c r="E36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>95</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2264,7 +2336,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="16.25" customHeight="1">
+    <row r="37" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2277,14 +2349,16 @@
       <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="10"/>
+      <c r="E37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="14"/>
       <c r="G37" s="1">
         <v>1</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>95</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2302,7 +2376,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="16.25" customHeight="1">
+    <row r="38" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2315,14 +2389,16 @@
       <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="10"/>
+      <c r="E38" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="14"/>
       <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>90</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2340,7 +2416,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="16.25" customHeight="1">
+    <row r="39" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2353,14 +2429,16 @@
       <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="E39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>93</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2378,7 +2456,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="16.25" customHeight="1">
+    <row r="40" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2391,14 +2469,16 @@
       <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="10"/>
+      <c r="E40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="14"/>
       <c r="G40" s="1">
         <v>1</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>82</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2416,27 +2496,29 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="16.25" customHeight="1">
+    <row r="41" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A41" s="2">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="10"/>
+      <c r="E41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="14"/>
       <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>74</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2454,7 +2536,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="16.25" customHeight="1">
+    <row r="42" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2467,14 +2549,16 @@
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="10"/>
+      <c r="E42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="14"/>
       <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>60</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2492,7 +2576,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="16.25" customHeight="1">
+    <row r="43" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2505,14 +2589,16 @@
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="10"/>
+      <c r="E43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="14"/>
       <c r="G43" s="1">
         <v>1</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>82</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2530,7 +2616,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="16.25" customHeight="1">
+    <row r="44" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2543,14 +2629,16 @@
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="10"/>
+      <c r="E44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="14"/>
       <c r="G44" s="1">
         <v>1</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>86</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2568,7 +2656,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="16.25" customHeight="1">
+    <row r="45" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2581,14 +2669,16 @@
       <c r="D45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="10"/>
+      <c r="E45" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="14"/>
       <c r="G45" s="1">
         <v>1</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1">
+        <v>60</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2606,7 +2696,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="25" customHeight="1">
+    <row r="46" spans="1:24" ht="24.95" customHeight="1">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2619,14 +2709,16 @@
       <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="10"/>
+      <c r="E46" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="14"/>
       <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1">
+        <v>84</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2644,7 +2736,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="16.25" customHeight="1">
+    <row r="47" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2657,14 +2749,16 @@
       <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="10"/>
+      <c r="E47" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="14"/>
       <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1">
+        <v>70</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2682,7 +2776,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="16.25" customHeight="1">
+    <row r="48" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2695,14 +2789,16 @@
       <c r="D48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="10"/>
+      <c r="E48" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="14"/>
       <c r="G48" s="1">
         <v>1</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1">
+        <v>68</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2720,7 +2816,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" ht="16.25" customHeight="1">
+    <row r="49" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2733,14 +2829,16 @@
       <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="10"/>
+      <c r="E49" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="14"/>
       <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1">
+        <v>96</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2758,7 +2856,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" ht="25" customHeight="1">
+    <row r="50" spans="1:24" ht="24.95" customHeight="1">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2771,14 +2869,16 @@
       <c r="D50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="10"/>
+      <c r="E50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="14"/>
       <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1">
+        <v>75</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2796,7 +2896,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" ht="25" customHeight="1">
+    <row r="51" spans="1:24" ht="24.95" customHeight="1">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2809,14 +2909,16 @@
       <c r="D51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="10"/>
+      <c r="E51" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="14"/>
       <c r="G51" s="1">
         <v>1</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1">
+        <v>53</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2834,7 +2936,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" ht="25" customHeight="1">
+    <row r="52" spans="1:24" ht="24.95" customHeight="1">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2847,14 +2949,16 @@
       <c r="D52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="10"/>
+      <c r="E52" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="14"/>
       <c r="G52" s="1">
         <v>1</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1">
+        <v>70</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2872,29 +2976,29 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="16.25" customHeight="1">
+    <row r="53" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="D53" s="5"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="1:24" ht="16.25" customHeight="1">
+    <row r="54" spans="1:24" ht="16.350000000000001" customHeight="1">
       <c r="D54" s="5"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:24" ht="25.75" customHeight="1">
+    <row r="55" spans="1:24" ht="25.7" customHeight="1">
       <c r="D55" s="5"/>
-      <c r="M55" s="12" t="s">
+      <c r="M55" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="N55" s="12"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="6"/>
-      <c r="R55" s="13" t="s">
+      <c r="R55" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
       <c r="X55" s="6"/>

--- a/2023春/周四10点班考勤表.xlsx
+++ b/2023春/周四10点班考勤表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
   <si>
     <t>2022-2023春季学期《经济学原理Ⅱ》考勤表</t>
   </si>
@@ -365,6 +365,10 @@
   </si>
   <si>
     <t>期中考试成绩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓考</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,19 +521,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,6 +529,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25"/>
@@ -873,78 +880,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="32.85" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1001,12 +1008,12 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>113</v>
       </c>
@@ -1075,10 +1082,10 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="14"/>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -1115,10 +1122,10 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14"/>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -1155,10 +1162,10 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="14"/>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -1195,10 +1202,10 @@
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -1235,10 +1242,10 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="14"/>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -1275,10 +1282,10 @@
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="14"/>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -1315,10 +1322,10 @@
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="14"/>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -1355,10 +1362,10 @@
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="14"/>
+      <c r="E12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="1">
         <v>1</v>
       </c>
@@ -1395,10 +1402,10 @@
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="14"/>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="1">
         <v>1</v>
       </c>
@@ -1435,10 +1442,10 @@
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="14"/>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="1">
         <v>1</v>
       </c>
@@ -1475,10 +1482,10 @@
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="14"/>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="1">
         <v>1</v>
       </c>
@@ -1515,10 +1522,10 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="14"/>
+      <c r="E16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="1">
         <v>1</v>
       </c>
@@ -1555,10 +1562,10 @@
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="14"/>
+      <c r="E17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="1">
         <v>1</v>
       </c>
@@ -1595,10 +1602,10 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="14"/>
+      <c r="E18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="1">
         <v>1</v>
       </c>
@@ -1635,10 +1642,10 @@
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="14"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="1">
         <v>1</v>
       </c>
@@ -1675,10 +1682,10 @@
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="14"/>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12"/>
       <c r="G20" s="1">
         <v>1</v>
       </c>
@@ -1715,10 +1722,10 @@
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="14"/>
+      <c r="E21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="1">
         <v>1</v>
       </c>
@@ -1755,10 +1762,10 @@
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="14"/>
+      <c r="E22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="1">
         <v>1</v>
       </c>
@@ -1795,10 +1802,10 @@
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="14"/>
+      <c r="E23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="1">
         <v>1</v>
       </c>
@@ -1835,10 +1842,10 @@
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="14"/>
+      <c r="E24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="12"/>
       <c r="G24" s="1">
         <v>1</v>
       </c>
@@ -1875,10 +1882,10 @@
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="14"/>
+      <c r="E25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="1">
         <v>1</v>
       </c>
@@ -1915,10 +1922,10 @@
       <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="14"/>
+      <c r="E26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="1">
         <v>1</v>
       </c>
@@ -1955,10 +1962,10 @@
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="14"/>
+      <c r="E27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="1">
         <v>1</v>
       </c>
@@ -1995,10 +2002,10 @@
       <c r="D28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="14"/>
+      <c r="E28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12"/>
       <c r="G28" s="1">
         <v>1</v>
       </c>
@@ -2035,10 +2042,10 @@
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="14"/>
+      <c r="E29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
       <c r="G29" s="1">
         <v>1</v>
       </c>
@@ -2073,10 +2080,10 @@
         <v>63</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="16"/>
+      <c r="E30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="15"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2109,10 +2116,10 @@
       <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="14"/>
+      <c r="E31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
       <c r="G31" s="1">
         <v>1</v>
       </c>
@@ -2149,10 +2156,10 @@
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="14"/>
+      <c r="E32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="1">
         <v>1</v>
       </c>
@@ -2189,10 +2196,10 @@
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="14"/>
+      <c r="E33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="1">
         <v>1</v>
       </c>
@@ -2229,10 +2236,10 @@
       <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="14"/>
+      <c r="E34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="12"/>
       <c r="G34" s="1">
         <v>1</v>
       </c>
@@ -2269,10 +2276,10 @@
       <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="14"/>
+      <c r="E35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="12"/>
       <c r="G35" s="1">
         <v>1</v>
       </c>
@@ -2309,10 +2316,10 @@
       <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="14"/>
+      <c r="E36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="12"/>
       <c r="G36" s="1">
         <v>1</v>
       </c>
@@ -2349,10 +2356,10 @@
       <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="14"/>
+      <c r="E37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="12"/>
       <c r="G37" s="1">
         <v>1</v>
       </c>
@@ -2389,10 +2396,10 @@
       <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="14"/>
+      <c r="E38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="12"/>
       <c r="G38" s="1">
         <v>1</v>
       </c>
@@ -2429,10 +2436,10 @@
       <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="14"/>
+      <c r="E39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="1">
         <v>1</v>
       </c>
@@ -2469,10 +2476,10 @@
       <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="14"/>
+      <c r="E40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="1">
         <v>1</v>
       </c>
@@ -2509,10 +2516,10 @@
       <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="14"/>
+      <c r="E41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="1">
         <v>1</v>
       </c>
@@ -2549,10 +2556,10 @@
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="14"/>
+      <c r="E42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="12"/>
       <c r="G42" s="1">
         <v>1</v>
       </c>
@@ -2589,10 +2596,10 @@
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="14"/>
+      <c r="E43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="G43" s="1">
         <v>1</v>
       </c>
@@ -2629,10 +2636,10 @@
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="14"/>
+      <c r="E44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="12"/>
       <c r="G44" s="1">
         <v>1</v>
       </c>
@@ -2669,10 +2676,10 @@
       <c r="D45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="14"/>
+      <c r="E45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="12"/>
       <c r="G45" s="1">
         <v>1</v>
       </c>
@@ -2709,10 +2716,10 @@
       <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="14"/>
+      <c r="E46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="12"/>
       <c r="G46" s="1">
         <v>1</v>
       </c>
@@ -2749,10 +2756,10 @@
       <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="14"/>
+      <c r="E47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="12"/>
       <c r="G47" s="1">
         <v>1</v>
       </c>
@@ -2789,10 +2796,10 @@
       <c r="D48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="14"/>
+      <c r="E48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="12"/>
       <c r="G48" s="1">
         <v>1</v>
       </c>
@@ -2829,10 +2836,10 @@
       <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="14"/>
+      <c r="E49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="12"/>
       <c r="G49" s="1">
         <v>1</v>
       </c>
@@ -2869,10 +2876,10 @@
       <c r="D50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="14"/>
+      <c r="E50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="12"/>
       <c r="G50" s="1">
         <v>1</v>
       </c>
@@ -2909,17 +2916,19 @@
       <c r="D51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="14"/>
+      <c r="E51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="12"/>
       <c r="G51" s="1">
         <v>1</v>
       </c>
       <c r="H51" s="1">
         <v>53</v>
       </c>
-      <c r="I51" s="1"/>
+      <c r="I51" s="19" t="s">
+        <v>115</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2949,10 +2958,10 @@
       <c r="D52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="14"/>
+      <c r="E52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="1">
         <v>1</v>
       </c>
@@ -2986,75 +2995,25 @@
     </row>
     <row r="55" spans="1:24" ht="25.7" customHeight="1">
       <c r="D55" s="5"/>
-      <c r="M55" s="17" t="s">
+      <c r="M55" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="N55" s="17"/>
+      <c r="N55" s="13"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="6"/>
-      <c r="R55" s="18" t="s">
+      <c r="R55" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
       <c r="X55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:A4"/>
@@ -3062,6 +3021,56 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="R55:U55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39500001072883606" right="0.39500001072883606" top="0.26899999380111694" bottom="0.26899999380111694" header="0" footer="0"/>

--- a/2023春/周四10点班考勤表.xlsx
+++ b/2023春/周四10点班考勤表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\读博\助教\2023春\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juncker/助教/2023春/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B9F5E3-26A2-9B4C-AA44-58F78831E502}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="117">
   <si>
     <t>2022-2023春季学期《经济学原理Ⅱ》考勤表</t>
   </si>
@@ -369,13 +370,17 @@
   </si>
   <si>
     <t>缓考</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末考勤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -521,7 +526,22 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -529,21 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,100 +863,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O55" sqref="O55"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="6" width="4.625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="24" width="4.5" customWidth="1"/>
-    <col min="25" max="25" width="9.875" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32.85" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:24" ht="32.75" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-    </row>
-    <row r="2" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.25" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.25" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1007,13 +1012,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.350000000000001" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+    <row r="4" spans="1:24" ht="16.25" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="4" t="s">
         <v>113</v>
       </c>
@@ -1024,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
@@ -1069,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="24.95" customHeight="1">
+    <row r="5" spans="1:24" ht="25" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1082,10 +1087,10 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12"/>
+      <c r="E5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="15"/>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -1093,7 +1098,9 @@
         <v>74</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1109,7 +1116,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="6" spans="1:24" ht="16.25" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1122,10 +1129,10 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="15"/>
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -1133,7 +1140,9 @@
         <v>90</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1149,7 +1158,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="7" spans="1:24" ht="16.25" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1162,10 +1171,10 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12"/>
+      <c r="E7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="15"/>
       <c r="G7" s="1">
         <v>1</v>
       </c>
@@ -1173,7 +1182,9 @@
         <v>68</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1189,7 +1200,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="8" spans="1:24" ht="16.25" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1202,10 +1213,10 @@
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="12"/>
+      <c r="E8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="15"/>
       <c r="G8" s="1">
         <v>1</v>
       </c>
@@ -1213,7 +1224,9 @@
         <v>70</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1229,7 +1242,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="9" spans="1:24" ht="16.25" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1242,10 +1255,10 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="E9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="15"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -1253,7 +1266,9 @@
         <v>84</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1269,7 +1284,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="10" spans="1:24" ht="16.25" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1282,10 +1297,10 @@
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="12"/>
+      <c r="E10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -1293,7 +1308,9 @@
         <v>72</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1309,7 +1326,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="11" spans="1:24" ht="16.25" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1322,10 +1339,10 @@
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="12"/>
+      <c r="E11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="15"/>
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -1333,7 +1350,9 @@
         <v>70</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1349,7 +1368,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="12" spans="1:24" ht="16.25" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1362,10 +1381,10 @@
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="12"/>
+      <c r="E12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="15"/>
       <c r="G12" s="1">
         <v>1</v>
       </c>
@@ -1373,7 +1392,9 @@
         <v>89</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1389,7 +1410,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="13" spans="1:24" ht="16.25" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1402,10 +1423,10 @@
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="12"/>
+      <c r="E13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="15"/>
       <c r="G13" s="1">
         <v>1</v>
       </c>
@@ -1413,7 +1434,9 @@
         <v>60</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1429,7 +1452,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="14" spans="1:24" ht="16.25" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1442,10 +1465,10 @@
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="12"/>
+      <c r="E14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="15"/>
       <c r="G14" s="1">
         <v>1</v>
       </c>
@@ -1453,7 +1476,9 @@
         <v>40</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1469,7 +1494,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="15" spans="1:24" ht="16.25" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1482,10 +1507,10 @@
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="12"/>
+      <c r="E15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="15"/>
       <c r="G15" s="1">
         <v>1</v>
       </c>
@@ -1493,7 +1518,9 @@
         <v>72</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1509,7 +1536,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="16" spans="1:24" ht="16.25" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1522,10 +1549,10 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="12"/>
+      <c r="E16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="1">
         <v>1</v>
       </c>
@@ -1533,7 +1560,9 @@
         <v>65</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1549,7 +1578,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="17" spans="1:24" ht="16.25" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1562,10 +1591,10 @@
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="E17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="1">
         <v>1</v>
       </c>
@@ -1573,7 +1602,9 @@
         <v>94</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1589,7 +1620,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="18" spans="1:24" ht="16.25" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1602,10 +1633,10 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="12"/>
+      <c r="E18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="15"/>
       <c r="G18" s="1">
         <v>1</v>
       </c>
@@ -1613,7 +1644,9 @@
         <v>77</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1629,7 +1662,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="19" spans="1:24" ht="16.25" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1642,10 +1675,10 @@
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="E19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="1">
         <v>1</v>
       </c>
@@ -1653,7 +1686,9 @@
         <v>88</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1669,7 +1704,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="20" spans="1:24" ht="16.25" customHeight="1">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1682,10 +1717,10 @@
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="12"/>
+      <c r="E20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="15"/>
       <c r="G20" s="1">
         <v>1</v>
       </c>
@@ -1693,7 +1728,9 @@
         <v>83</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1709,7 +1746,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="21" spans="1:24" ht="16.25" customHeight="1">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1722,10 +1759,10 @@
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="E21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="15"/>
       <c r="G21" s="1">
         <v>1</v>
       </c>
@@ -1733,7 +1770,9 @@
         <v>81</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1749,7 +1788,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="22" spans="1:24" ht="16.25" customHeight="1">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1762,10 +1801,10 @@
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="12"/>
+      <c r="E22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="15"/>
       <c r="G22" s="1">
         <v>1</v>
       </c>
@@ -1773,7 +1812,9 @@
         <v>84</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1789,7 +1830,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="23" spans="1:24" ht="16.25" customHeight="1">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1802,10 +1843,10 @@
       <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="12"/>
+      <c r="E23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="15"/>
       <c r="G23" s="1">
         <v>1</v>
       </c>
@@ -1813,7 +1854,9 @@
         <v>73</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1829,7 +1872,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="24" spans="1:24" ht="16.25" customHeight="1">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1842,10 +1885,10 @@
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="12"/>
+      <c r="E24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="15"/>
       <c r="G24" s="1">
         <v>1</v>
       </c>
@@ -1853,7 +1896,9 @@
         <v>77</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1869,7 +1914,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="25" spans="1:24" ht="16.25" customHeight="1">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1882,10 +1927,10 @@
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="12"/>
+      <c r="E25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="G25" s="1">
         <v>1</v>
       </c>
@@ -1893,7 +1938,9 @@
         <v>87</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1909,7 +1956,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="26" spans="1:24" ht="16.25" customHeight="1">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1922,10 +1969,10 @@
       <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="12"/>
+      <c r="E26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="15"/>
       <c r="G26" s="1">
         <v>1</v>
       </c>
@@ -1933,7 +1980,9 @@
         <v>76</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1949,7 +1998,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="27" spans="1:24" ht="16.25" customHeight="1">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1962,10 +2011,10 @@
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="12"/>
+      <c r="E27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="15"/>
       <c r="G27" s="1">
         <v>1</v>
       </c>
@@ -1973,7 +2022,9 @@
         <v>62</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1989,7 +2040,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="28" spans="1:24" ht="16.25" customHeight="1">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2002,10 +2053,10 @@
       <c r="D28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="12"/>
+      <c r="E28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="15"/>
       <c r="G28" s="1">
         <v>1</v>
       </c>
@@ -2013,7 +2064,9 @@
         <v>86</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2029,7 +2082,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="29" spans="1:24" ht="16.25" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2042,10 +2095,10 @@
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="12"/>
+      <c r="E29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="1">
         <v>1</v>
       </c>
@@ -2053,7 +2106,9 @@
         <v>76</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2069,7 +2124,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="30" spans="1:24" ht="16.25" customHeight="1">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -2080,10 +2135,10 @@
         <v>63</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="15"/>
+      <c r="E30" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="17"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2103,7 +2158,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="31" spans="1:24" ht="16.25" customHeight="1">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2116,10 +2171,10 @@
       <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="12"/>
+      <c r="E31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="15"/>
       <c r="G31" s="1">
         <v>1</v>
       </c>
@@ -2127,7 +2182,9 @@
         <v>81</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2143,7 +2200,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="32" spans="1:24" ht="16.25" customHeight="1">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2156,10 +2213,10 @@
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="12"/>
+      <c r="E32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="15"/>
       <c r="G32" s="1">
         <v>1</v>
       </c>
@@ -2167,7 +2224,9 @@
         <v>78</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2183,7 +2242,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="33" spans="1:24" ht="16.25" customHeight="1">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2196,10 +2255,10 @@
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="12"/>
+      <c r="E33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="15"/>
       <c r="G33" s="1">
         <v>1</v>
       </c>
@@ -2207,7 +2266,9 @@
         <v>69</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2223,7 +2284,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="34" spans="1:24" ht="16.25" customHeight="1">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2236,10 +2297,10 @@
       <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="12"/>
+      <c r="E34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="15"/>
       <c r="G34" s="1">
         <v>1</v>
       </c>
@@ -2247,7 +2308,9 @@
         <v>86</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2263,7 +2326,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="35" spans="1:24" ht="16.25" customHeight="1">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2276,10 +2339,10 @@
       <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="12"/>
+      <c r="E35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="15"/>
       <c r="G35" s="1">
         <v>1</v>
       </c>
@@ -2287,7 +2350,9 @@
         <v>73</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2303,7 +2368,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="36" spans="1:24" ht="16.25" customHeight="1">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2316,10 +2381,10 @@
       <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="12"/>
+      <c r="E36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="15"/>
       <c r="G36" s="1">
         <v>1</v>
       </c>
@@ -2327,7 +2392,9 @@
         <v>95</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2343,7 +2410,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="37" spans="1:24" ht="16.25" customHeight="1">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2356,10 +2423,10 @@
       <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="12"/>
+      <c r="E37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="15"/>
       <c r="G37" s="1">
         <v>1</v>
       </c>
@@ -2367,7 +2434,9 @@
         <v>95</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2383,7 +2452,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="38" spans="1:24" ht="16.25" customHeight="1">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2396,10 +2465,10 @@
       <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="12"/>
+      <c r="E38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="15"/>
       <c r="G38" s="1">
         <v>1</v>
       </c>
@@ -2407,7 +2476,9 @@
         <v>90</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2423,7 +2494,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="39" spans="1:24" ht="16.25" customHeight="1">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2436,10 +2507,10 @@
       <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="12"/>
+      <c r="E39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="15"/>
       <c r="G39" s="1">
         <v>1</v>
       </c>
@@ -2447,7 +2518,9 @@
         <v>93</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2463,7 +2536,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="40" spans="1:24" ht="16.25" customHeight="1">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2476,10 +2549,10 @@
       <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="12"/>
+      <c r="E40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="15"/>
       <c r="G40" s="1">
         <v>1</v>
       </c>
@@ -2487,7 +2560,9 @@
         <v>82</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2503,7 +2578,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="41" spans="1:24" ht="16.25" customHeight="1">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2516,10 +2591,10 @@
       <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="12"/>
+      <c r="E41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="15"/>
       <c r="G41" s="1">
         <v>1</v>
       </c>
@@ -2527,7 +2602,9 @@
         <v>74</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2543,7 +2620,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="42" spans="1:24" ht="16.25" customHeight="1">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2556,10 +2633,10 @@
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="12"/>
+      <c r="E42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="15"/>
       <c r="G42" s="1">
         <v>1</v>
       </c>
@@ -2567,7 +2644,9 @@
         <v>60</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2583,7 +2662,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="43" spans="1:24" ht="16.25" customHeight="1">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2596,10 +2675,10 @@
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="12"/>
+      <c r="E43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="15"/>
       <c r="G43" s="1">
         <v>1</v>
       </c>
@@ -2607,7 +2686,9 @@
         <v>82</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2623,7 +2704,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="44" spans="1:24" ht="16.25" customHeight="1">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2636,10 +2717,10 @@
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="12"/>
+      <c r="E44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="15"/>
       <c r="G44" s="1">
         <v>1</v>
       </c>
@@ -2647,7 +2728,9 @@
         <v>86</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2663,7 +2746,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="45" spans="1:24" ht="16.25" customHeight="1">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2676,10 +2759,10 @@
       <c r="D45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="12"/>
+      <c r="E45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="15"/>
       <c r="G45" s="1">
         <v>1</v>
       </c>
@@ -2687,7 +2770,9 @@
         <v>60</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2703,7 +2788,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="24.95" customHeight="1">
+    <row r="46" spans="1:24" ht="25" customHeight="1">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2716,10 +2801,10 @@
       <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="12"/>
+      <c r="E46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="15"/>
       <c r="G46" s="1">
         <v>1</v>
       </c>
@@ -2727,7 +2812,9 @@
         <v>84</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2743,7 +2830,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="47" spans="1:24" ht="16.25" customHeight="1">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2756,10 +2843,10 @@
       <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="12"/>
+      <c r="E47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="15"/>
       <c r="G47" s="1">
         <v>1</v>
       </c>
@@ -2767,7 +2854,9 @@
         <v>70</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2783,7 +2872,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="48" spans="1:24" ht="16.25" customHeight="1">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2796,10 +2885,10 @@
       <c r="D48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="12"/>
+      <c r="E48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="15"/>
       <c r="G48" s="1">
         <v>1</v>
       </c>
@@ -2807,7 +2896,9 @@
         <v>68</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2823,7 +2914,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="49" spans="1:24" ht="16.25" customHeight="1">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2836,10 +2927,10 @@
       <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="12"/>
+      <c r="E49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="15"/>
       <c r="G49" s="1">
         <v>1</v>
       </c>
@@ -2847,7 +2938,9 @@
         <v>96</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2863,7 +2956,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" ht="24.95" customHeight="1">
+    <row r="50" spans="1:24" ht="25" customHeight="1">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2876,10 +2969,10 @@
       <c r="D50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="12"/>
+      <c r="E50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="15"/>
       <c r="G50" s="1">
         <v>1</v>
       </c>
@@ -2887,7 +2980,9 @@
         <v>75</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2903,7 +2998,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" ht="24.95" customHeight="1">
+    <row r="51" spans="1:24" ht="25" customHeight="1">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2916,17 +3011,17 @@
       <c r="D51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="12"/>
+      <c r="E51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="15"/>
       <c r="G51" s="1">
         <v>1</v>
       </c>
       <c r="H51" s="1">
         <v>53</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="12" t="s">
         <v>115</v>
       </c>
       <c r="J51" s="1"/>
@@ -2945,7 +3040,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" ht="24.95" customHeight="1">
+    <row r="52" spans="1:24" ht="25" customHeight="1">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2958,10 +3053,10 @@
       <c r="D52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="12"/>
+      <c r="E52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="15"/>
       <c r="G52" s="1">
         <v>1</v>
       </c>
@@ -2969,7 +3064,9 @@
         <v>70</v>
       </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2985,35 +3082,85 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="53" spans="1:24" ht="16.25" customHeight="1">
       <c r="D53" s="5"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="1:24" ht="16.350000000000001" customHeight="1">
+    <row r="54" spans="1:24" ht="16.25" customHeight="1">
       <c r="D54" s="5"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:24" ht="25.7" customHeight="1">
+    <row r="55" spans="1:24" ht="25.75" customHeight="1">
       <c r="D55" s="5"/>
-      <c r="M55" s="13" t="s">
+      <c r="M55" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="N55" s="13"/>
+      <c r="N55" s="18"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="6"/>
-      <c r="R55" s="14" t="s">
+      <c r="R55" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
       <c r="X55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A3:A4"/>
@@ -3021,56 +3168,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="R55:U55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39500001072883606" right="0.39500001072883606" top="0.26899999380111694" bottom="0.26899999380111694" header="0" footer="0"/>
